--- a/biology/Botanique/Sorbier_d'Amérique/Sorbier_d'Amérique.xlsx
+++ b/biology/Botanique/Sorbier_d'Amérique/Sorbier_d'Amérique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sorbier_d%27Am%C3%A9rique</t>
+          <t>Sorbier_d'Amérique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sorbus americana
-Le Sorbier d'Amérique[1] (Sorbus americana) est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un arbre relativement petit (hauteur : 10 m), à feuilles caduques, originaire du nord-est de l'Amérique du Nord.
+Le Sorbier d'Amérique (Sorbus americana) est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un arbre relativement petit (hauteur : 10 m), à feuilles caduques, originaire du nord-est de l'Amérique du Nord.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sorbier_d%27Am%C3%A9rique</t>
+          <t>Sorbier_d'Amérique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sorbus americana ressemble à Sorbus aucuparia. 
 Écorce : gris clair, lisse, surface squameuse. Rameaux duveteux au début, puis devenant lisse, bruns teintés de rouge, lenticulaire, finalement ils deviennent plus sombre et la couche externe fine comme du papier devient facilement séparable.
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sorbier_d%27Am%C3%A9rique</t>
+          <t>Sorbier_d'Amérique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,9 +566,11 @@
           <t>Noms</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sorbier d'Amérique est aussi connu sous le nom d'arbre des bourgeois[1]. Il est aussi connu en Acadie sous le nom de Cormier[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sorbier d'Amérique est aussi connu sous le nom d'arbre des bourgeois. Il est aussi connu en Acadie sous le nom de Cormier.
 </t>
         </is>
       </c>
